--- a/reading-practice.xlsx
+++ b/reading-practice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/689131/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C424F7-5E7F-5A44-A77B-24BC8045F331}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0529A33-E116-4701-B2B4-67853C8061FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" xr2:uid="{E9CC96BB-580B-884A-A437-621410D5E53C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E9CC96BB-580B-884A-A437-621410D5E53C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="183">
   <si>
     <t>たかさ</t>
   </si>
@@ -268,6 +267,323 @@
   </si>
   <si>
     <t>English</t>
+  </si>
+  <si>
+    <t>台風</t>
+  </si>
+  <si>
+    <t>たいふう</t>
+  </si>
+  <si>
+    <t>被害</t>
+  </si>
+  <si>
+    <t>ひがい</t>
+  </si>
+  <si>
+    <t>うけた</t>
+  </si>
+  <si>
+    <t>受けた</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北陸新幹線</t>
+  </si>
+  <si>
+    <t>ほくりくしんかんせん</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>ぜんぶ</t>
+  </si>
+  <si>
+    <t>とおれる</t>
+  </si>
+  <si>
+    <t>通れる</t>
+  </si>
+  <si>
+    <t>東京駅</t>
+  </si>
+  <si>
+    <t>石川県</t>
+  </si>
+  <si>
+    <t>金沢駅</t>
+  </si>
+  <si>
+    <t>とうきょうえき</t>
+  </si>
+  <si>
+    <t>いしかわけん</t>
+  </si>
+  <si>
+    <t>かなざわえき</t>
+  </si>
+  <si>
+    <t>間</t>
+  </si>
+  <si>
+    <t>あいだ</t>
+  </si>
+  <si>
+    <t>はしる</t>
+  </si>
+  <si>
+    <t>走しる</t>
+  </si>
+  <si>
+    <t>このため</t>
+  </si>
+  <si>
+    <t>今月</t>
+  </si>
+  <si>
+    <t>日</t>
+  </si>
+  <si>
+    <t>所</t>
+  </si>
+  <si>
+    <t>ところ</t>
+  </si>
+  <si>
+    <t>にち</t>
+  </si>
+  <si>
+    <t>こんげつ</t>
+  </si>
+  <si>
+    <t>なおったため</t>
+  </si>
+  <si>
+    <t>直ったため</t>
+  </si>
+  <si>
+    <t>朝</t>
+  </si>
+  <si>
+    <t>あさ</t>
+  </si>
+  <si>
+    <t>午前</t>
+  </si>
+  <si>
+    <t>ごぜん</t>
+  </si>
+  <si>
+    <t>５時半ごろ</t>
+  </si>
+  <si>
+    <t>５じはんごろ</t>
+  </si>
+  <si>
+    <t>荷物</t>
+  </si>
+  <si>
+    <t>にもつ</t>
+  </si>
+  <si>
+    <t>もった</t>
+  </si>
+  <si>
+    <t>持った</t>
+  </si>
+  <si>
+    <t>家族</t>
+  </si>
+  <si>
+    <t>かぞく</t>
+  </si>
+  <si>
+    <t>仕事</t>
+  </si>
+  <si>
+    <t>しごと</t>
+  </si>
+  <si>
+    <t>いく</t>
+  </si>
+  <si>
+    <t>行く</t>
+  </si>
+  <si>
+    <t>人</t>
+  </si>
+  <si>
+    <t>ひと</t>
+  </si>
+  <si>
+    <t>きて</t>
+  </si>
+  <si>
+    <t>来て</t>
+  </si>
+  <si>
+    <t>新幹線</t>
+  </si>
+  <si>
+    <t>しんかんせん</t>
+  </si>
+  <si>
+    <t>しゅっぱつ</t>
+  </si>
+  <si>
+    <t>出発</t>
+  </si>
+  <si>
+    <t>女性</t>
+  </si>
+  <si>
+    <t>じょせい</t>
+  </si>
+  <si>
+    <t>まご</t>
+  </si>
+  <si>
+    <t>孫</t>
+  </si>
+  <si>
+    <t>一緒に</t>
+  </si>
+  <si>
+    <t>いっしょに</t>
+  </si>
+  <si>
+    <t>はなしていました</t>
+  </si>
+  <si>
+    <t>話していました</t>
+  </si>
+  <si>
+    <t>しばらくの間</t>
+  </si>
+  <si>
+    <t>しばらくのあいだ</t>
+  </si>
+  <si>
+    <t>数が</t>
+  </si>
+  <si>
+    <t>かずが</t>
+  </si>
+  <si>
+    <t>すくなくなります</t>
+  </si>
+  <si>
+    <t>少なくなります</t>
+  </si>
+  <si>
+    <t>typhoon</t>
+  </si>
+  <si>
+    <t>(suffering) damage
+,harm, injury</t>
+  </si>
+  <si>
+    <t>to suffer (an injury)
+to sustain (damage)
+to receive</t>
+  </si>
+  <si>
+    <t>The train that covers Hokuriku region</t>
+  </si>
+  <si>
+    <t>all; entire; whole; altogether</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to pass (by); to go through; to walk along;
+ to pass exams; to attend (e.g. school) </t>
+  </si>
+  <si>
+    <t>Tokyo Station</t>
+  </si>
+  <si>
+    <t>Ishikawa Prefecture.</t>
+  </si>
+  <si>
+    <t>Kanazawa Station</t>
+  </si>
+  <si>
+    <t>span (temporal or spatial); stretch; period (while)</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>Because of that</t>
+  </si>
+  <si>
+    <t>This month</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Place
+(after present form of a verb) about to</t>
+  </si>
+  <si>
+    <t>as it is repaired</t>
+  </si>
+  <si>
+    <t>Morning</t>
+  </si>
+  <si>
+    <t>Before noon</t>
+  </si>
+  <si>
+    <t>About 5:30</t>
+  </si>
+  <si>
+    <t>luggage</t>
+  </si>
+  <si>
+    <t>Hold</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Work</t>
+  </si>
+  <si>
+    <t>to go</t>
+  </si>
+  <si>
+    <t>person(s)</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>Shinkansen</t>
+  </si>
+  <si>
+    <t>Depart</t>
+  </si>
+  <si>
+    <t>Woman</t>
+  </si>
+  <si>
+    <t>Grand Child</t>
+  </si>
+  <si>
+    <t>together</t>
+  </si>
+  <si>
+    <t>Talk</t>
+  </si>
+  <si>
+    <t>number, amount</t>
+  </si>
+  <si>
+    <t>become less</t>
+  </si>
+  <si>
+    <t>for the time being</t>
   </si>
 </sst>
 </file>
@@ -308,12 +624,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -329,12 +657,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -342,6 +667,17 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -455,6 +791,94 @@
         <a:xfrm>
           <a:off x="9319492" y="258617"/>
           <a:ext cx="4367068" cy="9028546"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>198121</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>246795</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65553E1F-0858-4395-8767-1BD65EAEB8AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5760721" y="9799320"/>
+          <a:ext cx="4376834" cy="5836920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>434342</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>495002</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>96164</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8687B3F1-AC08-4614-B5DF-8C0840686888}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10325102" y="9845040"/>
+          <a:ext cx="4327860" cy="5874029"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -763,55 +1187,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BDF87B-41D2-C04F-A633-1AD95FAA6E1B}">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:P87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F13" zoomScale="231" zoomScaleNormal="268" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="34.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.8984375" customWidth="1"/>
+    <col min="2" max="2" width="21.296875" customWidth="1"/>
+    <col min="3" max="3" width="31.09765625" customWidth="1"/>
+    <col min="4" max="4" width="10.69921875" customWidth="1"/>
+    <col min="5" max="5" width="34.296875" customWidth="1"/>
+    <col min="16" max="16" width="2.796875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -822,7 +1247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -833,7 +1258,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -844,7 +1269,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -855,7 +1280,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -866,7 +1291,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -877,7 +1302,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -888,7 +1313,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -899,7 +1324,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -910,7 +1335,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -921,7 +1346,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -932,7 +1357,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -943,7 +1368,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -954,7 +1379,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -965,7 +1390,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -976,7 +1401,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -987,7 +1412,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -998,7 +1423,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -1009,7 +1434,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -1020,7 +1445,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>58</v>
       </c>
@@ -1031,7 +1456,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -1042,7 +1467,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>64</v>
       </c>
@@ -1053,7 +1478,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -1064,7 +1489,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>70</v>
       </c>
@@ -1075,7 +1500,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>73</v>
       </c>
@@ -1086,14 +1511,435 @@
         <v>75</v>
       </c>
     </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>81</v>
+      </c>
+      <c r="B52" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>85</v>
+      </c>
+      <c r="B54" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>87</v>
+      </c>
+      <c r="B55" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>90</v>
+      </c>
+      <c r="B56" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>91</v>
+      </c>
+      <c r="B57" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>92</v>
+      </c>
+      <c r="B58" t="s">
+        <v>95</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>93</v>
+      </c>
+      <c r="B59" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>97</v>
+      </c>
+      <c r="B60" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>100</v>
+      </c>
+      <c r="B61" t="s">
+        <v>99</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>101</v>
+      </c>
+      <c r="B62" t="s">
+        <v>101</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>102</v>
+      </c>
+      <c r="B63" t="s">
+        <v>107</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>103</v>
+      </c>
+      <c r="B64" t="s">
+        <v>106</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>104</v>
+      </c>
+      <c r="B65" t="s">
+        <v>105</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>109</v>
+      </c>
+      <c r="B66" t="s">
+        <v>108</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>110</v>
+      </c>
+      <c r="B67" t="s">
+        <v>111</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>112</v>
+      </c>
+      <c r="B68" t="s">
+        <v>113</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>114</v>
+      </c>
+      <c r="B69" t="s">
+        <v>115</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>116</v>
+      </c>
+      <c r="B70" t="s">
+        <v>117</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>119</v>
+      </c>
+      <c r="B71" t="s">
+        <v>118</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>120</v>
+      </c>
+      <c r="B72" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>122</v>
+      </c>
+      <c r="B73" t="s">
+        <v>123</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>125</v>
+      </c>
+      <c r="B74" t="s">
+        <v>124</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>126</v>
+      </c>
+      <c r="B75" t="s">
+        <v>127</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>129</v>
+      </c>
+      <c r="B76" t="s">
+        <v>128</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>130</v>
+      </c>
+      <c r="B77" t="s">
+        <v>131</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>133</v>
+      </c>
+      <c r="B78" t="s">
+        <v>132</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>134</v>
+      </c>
+      <c r="B79" t="s">
+        <v>135</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>137</v>
+      </c>
+      <c r="B80" t="s">
+        <v>136</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>138</v>
+      </c>
+      <c r="B81" t="s">
+        <v>139</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>141</v>
+      </c>
+      <c r="B82" t="s">
+        <v>140</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>142</v>
+      </c>
+      <c r="B83" t="s">
+        <v>143</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>144</v>
+      </c>
+      <c r="B84" t="s">
+        <v>145</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>147</v>
+      </c>
+      <c r="B85" t="s">
+        <v>146</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A87" s="6"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
+      <c r="O87" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A48:O48"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{E6D9238B-3069-4B45-A8A1-CF3C5F3B5524}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/reading-practice.xlsx
+++ b/reading-practice.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\kanji_html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0529A33-E116-4701-B2B4-67853C8061FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231EAD92-A284-492A-B248-C27D050DD458}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E9CC96BB-580B-884A-A437-621410D5E53C}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="269">
   <si>
     <t>たかさ</t>
   </si>
@@ -584,13 +584,271 @@
   </si>
   <si>
     <t>for the time being</t>
+  </si>
+  <si>
+    <t>津波</t>
+  </si>
+  <si>
+    <t>つなみ</t>
+  </si>
+  <si>
+    <t>行方不明</t>
+  </si>
+  <si>
+    <t>ゆくえふめい</t>
+  </si>
+  <si>
+    <t>戻る</t>
+  </si>
+  <si>
+    <t>もどる</t>
+  </si>
+  <si>
+    <t>宮城県</t>
+  </si>
+  <si>
+    <t>みやぎけん</t>
+  </si>
+  <si>
+    <t>山元町</t>
+  </si>
+  <si>
+    <t>やまもとちょう</t>
+  </si>
+  <si>
+    <t>住んでいた</t>
+  </si>
+  <si>
+    <t>すんでいた</t>
+  </si>
+  <si>
+    <t>２７歳</t>
+  </si>
+  <si>
+    <t>２７さい</t>
+  </si>
+  <si>
+    <t>great earthquake (disaster)</t>
+  </si>
+  <si>
+    <t>だいしんさい</t>
+  </si>
+  <si>
+    <t>大震災</t>
+  </si>
+  <si>
+    <t>27 years old</t>
+  </si>
+  <si>
+    <t>Living</t>
+  </si>
+  <si>
+    <t>ゆくえふめいになりました</t>
+  </si>
+  <si>
+    <t>行方不明になりました</t>
+  </si>
+  <si>
+    <t>Tsunami</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t>Miyagi Prefecture</t>
+  </si>
+  <si>
+    <t>Yamamoto town</t>
+  </si>
+  <si>
+    <t>Became missing</t>
+  </si>
+  <si>
+    <t>Missing</t>
+  </si>
+  <si>
+    <t>８ねんいじょうがすぎて</t>
+  </si>
+  <si>
+    <t>８年以上が過ぎて</t>
+  </si>
+  <si>
+    <t>After more than 8 years</t>
+  </si>
+  <si>
+    <t>自動車学校</t>
+  </si>
+  <si>
+    <t>じどうしゃがっこう</t>
+  </si>
+  <si>
+    <t>Driving School</t>
+  </si>
+  <si>
+    <t>今年８月に</t>
+  </si>
+  <si>
+    <t>ことし８がつに</t>
+  </si>
+  <si>
+    <t>This Year August</t>
+  </si>
+  <si>
+    <t>骨</t>
+  </si>
+  <si>
+    <t>ほね</t>
+  </si>
+  <si>
+    <t>Bone</t>
+  </si>
+  <si>
+    <t>みつかって</t>
+  </si>
+  <si>
+    <t>見つかって</t>
+  </si>
+  <si>
+    <t>警察</t>
+  </si>
+  <si>
+    <t>けいさつ</t>
+  </si>
+  <si>
+    <t>Police</t>
+  </si>
+  <si>
+    <t>to be found</t>
+  </si>
+  <si>
+    <t>今月２４日</t>
+  </si>
+  <si>
+    <t>こんげつにじゅうよっか</t>
+  </si>
+  <si>
+    <t>This month 24</t>
+  </si>
+  <si>
+    <t>わたしました</t>
+  </si>
+  <si>
+    <t>渡しました</t>
+  </si>
+  <si>
+    <t>Handovered</t>
+  </si>
+  <si>
+    <t>８年７か月が過ぎて</t>
+  </si>
+  <si>
+    <t>８ねん７かげつがすぎて</t>
+  </si>
+  <si>
+    <t>After 8 years 7 moths</t>
+  </si>
+  <si>
+    <t>家族の所に帰る</t>
+  </si>
+  <si>
+    <t>かぞくのところにかえる</t>
+  </si>
+  <si>
+    <t>Return home</t>
+  </si>
+  <si>
+    <t>離す</t>
+  </si>
+  <si>
+    <t>はなす</t>
+  </si>
+  <si>
+    <t>to separate, to part, to divide, to keep apart</t>
+  </si>
+  <si>
+    <t>生きている娘が帰ってきたようで</t>
+  </si>
+  <si>
+    <t>いきているむすめがかえってきたようで</t>
+  </si>
+  <si>
+    <t>As if the living daughter returned</t>
+  </si>
+  <si>
+    <t>ほんとうにうれしくて</t>
+  </si>
+  <si>
+    <t>本当にうれしくて</t>
+  </si>
+  <si>
+    <t>Becoming really happy.</t>
+  </si>
+  <si>
+    <t>はなしたくないです</t>
+  </si>
+  <si>
+    <t>離したくないです</t>
+  </si>
+  <si>
+    <t>Don't want to leave.</t>
+  </si>
+  <si>
+    <t>まだ見つかっていない人がいても</t>
+  </si>
+  <si>
+    <t>まだみつかっていないひとがいても</t>
+  </si>
+  <si>
+    <t>If still missing people are there</t>
+  </si>
+  <si>
+    <t>もう帰ってこないと</t>
+  </si>
+  <si>
+    <t>もうかえってこないと</t>
+  </si>
+  <si>
+    <t>And not already returned</t>
+  </si>
+  <si>
+    <t>家族は思わないでほしいです</t>
+  </si>
+  <si>
+    <t>ぞくはおもわないでほしいです</t>
+  </si>
+  <si>
+    <t>want their families not to forget them.</t>
+  </si>
+  <si>
+    <t>遺体</t>
+  </si>
+  <si>
+    <t>いたい</t>
+  </si>
+  <si>
+    <t>corpse; remain</t>
+  </si>
+  <si>
+    <t>だれか</t>
+  </si>
+  <si>
+    <t>誰か</t>
+  </si>
+  <si>
+    <t>Whose/ someone</t>
+  </si>
+  <si>
+    <t>https://www3.nhk.or.jp/news/easy/k10012147731000/k10012147731000.html</t>
+  </si>
+  <si>
+    <t>https://www3.nhk.or.jp/news/easy/k10012146471000/k10012146471000.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -623,8 +881,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -643,6 +916,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -657,7 +936,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -668,17 +947,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -751,16 +1035,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>111992</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>721592</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>56572</xdr:rowOff>
+      <xdr:rowOff>79432</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>365992</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>195118</xdr:rowOff>
+      <xdr:colOff>122152</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>19858</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -789,8 +1073,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9319492" y="258617"/>
-          <a:ext cx="4367068" cy="9028546"/>
+          <a:off x="11541992" y="277552"/>
+          <a:ext cx="4521200" cy="8855826"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -802,22 +1086,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>198121</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>246795</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>223582</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65553E1F-0858-4395-8767-1BD65EAEB8AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0684073B-EA52-4F60-B1C1-66DD064E30E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -833,8 +1117,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5760721" y="9799320"/>
-          <a:ext cx="4376834" cy="5836920"/>
+          <a:off x="7347857" y="18875828"/>
+          <a:ext cx="3685239" cy="7805058"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -845,23 +1129,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>434342</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>26127</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>495002</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>96164</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>382765</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>179331</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8687B3F1-AC08-4614-B5DF-8C0840686888}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EF0870D-8BD9-43EF-BBDB-D4F6049FF87D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -877,8 +1161,96 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10325102" y="9845040"/>
-          <a:ext cx="4327860" cy="5874029"/>
+          <a:off x="10949940" y="19045647"/>
+          <a:ext cx="3666985" cy="7879884"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>206828</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>65315</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>697552</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>177305</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB2A2B75-3DFA-4BB0-98D8-E0423788347B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7554685" y="9470572"/>
+          <a:ext cx="3952381" cy="7590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>622663</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>13062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>396282</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>127229</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89C3B4D2-273F-4FFC-9646-F66096E03CCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11443063" y="9522822"/>
+          <a:ext cx="4040819" cy="7642727"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1187,41 +1559,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BDF87B-41D2-C04F-A633-1AD95FAA6E1B}">
-  <dimension ref="A1:P87"/>
+  <dimension ref="A1:P129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A131" sqref="A131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.8984375" customWidth="1"/>
-    <col min="2" max="2" width="21.296875" customWidth="1"/>
-    <col min="3" max="3" width="31.09765625" customWidth="1"/>
+    <col min="1" max="1" width="21.296875" customWidth="1"/>
+    <col min="2" max="2" width="25.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.19921875" customWidth="1"/>
     <col min="4" max="4" width="10.69921875" customWidth="1"/>
     <col min="5" max="5" width="34.296875" customWidth="1"/>
-    <col min="16" max="16" width="2.796875" style="7" customWidth="1"/>
+    <col min="16" max="16" width="2.796875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -1512,21 +1884,23 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
+      <c r="A48" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
@@ -1546,7 +1920,7 @@
       <c r="B52" t="s">
         <v>82</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="6" t="s">
         <v>149</v>
       </c>
     </row>
@@ -1557,7 +1931,7 @@
       <c r="B53" t="s">
         <v>83</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="6" t="s">
         <v>150</v>
       </c>
     </row>
@@ -1590,7 +1964,7 @@
       <c r="B56" t="s">
         <v>89</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="6" t="s">
         <v>153</v>
       </c>
     </row>
@@ -1601,7 +1975,7 @@
       <c r="B57" t="s">
         <v>94</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="6" t="s">
         <v>154</v>
       </c>
     </row>
@@ -1612,7 +1986,7 @@
       <c r="B58" t="s">
         <v>95</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="6" t="s">
         <v>155</v>
       </c>
     </row>
@@ -1623,7 +1997,7 @@
       <c r="B59" t="s">
         <v>96</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="6" t="s">
         <v>156</v>
       </c>
     </row>
@@ -1634,7 +2008,7 @@
       <c r="B60" t="s">
         <v>98</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="6" t="s">
         <v>157</v>
       </c>
     </row>
@@ -1645,7 +2019,7 @@
       <c r="B61" t="s">
         <v>99</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="6" t="s">
         <v>158</v>
       </c>
     </row>
@@ -1656,7 +2030,7 @@
       <c r="B62" t="s">
         <v>101</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="6" t="s">
         <v>159</v>
       </c>
     </row>
@@ -1667,7 +2041,7 @@
       <c r="B63" t="s">
         <v>107</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="6" t="s">
         <v>160</v>
       </c>
     </row>
@@ -1678,7 +2052,7 @@
       <c r="B64" t="s">
         <v>106</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="6" t="s">
         <v>161</v>
       </c>
     </row>
@@ -1689,7 +2063,7 @@
       <c r="B65" t="s">
         <v>105</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="6" t="s">
         <v>162</v>
       </c>
     </row>
@@ -1700,7 +2074,7 @@
       <c r="B66" t="s">
         <v>108</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="6" t="s">
         <v>163</v>
       </c>
     </row>
@@ -1711,7 +2085,7 @@
       <c r="B67" t="s">
         <v>111</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="6" t="s">
         <v>164</v>
       </c>
     </row>
@@ -1722,7 +2096,7 @@
       <c r="B68" t="s">
         <v>113</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="6" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1733,7 +2107,7 @@
       <c r="B69" t="s">
         <v>115</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="6" t="s">
         <v>166</v>
       </c>
     </row>
@@ -1744,7 +2118,7 @@
       <c r="B70" t="s">
         <v>117</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="6" t="s">
         <v>167</v>
       </c>
     </row>
@@ -1755,7 +2129,7 @@
       <c r="B71" t="s">
         <v>118</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="6" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1766,7 +2140,7 @@
       <c r="B72" t="s">
         <v>121</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="6" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1777,7 +2151,7 @@
       <c r="B73" t="s">
         <v>123</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="6" t="s">
         <v>170</v>
       </c>
     </row>
@@ -1788,7 +2162,7 @@
       <c r="B74" t="s">
         <v>124</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="6" t="s">
         <v>171</v>
       </c>
     </row>
@@ -1799,7 +2173,7 @@
       <c r="B75" t="s">
         <v>127</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="6" t="s">
         <v>172</v>
       </c>
     </row>
@@ -1810,7 +2184,7 @@
       <c r="B76" t="s">
         <v>128</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -1821,7 +2195,7 @@
       <c r="B77" t="s">
         <v>131</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="6" t="s">
         <v>174</v>
       </c>
     </row>
@@ -1832,7 +2206,7 @@
       <c r="B78" t="s">
         <v>132</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="6" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1843,7 +2217,7 @@
       <c r="B79" t="s">
         <v>135</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" s="6" t="s">
         <v>176</v>
       </c>
     </row>
@@ -1854,7 +2228,7 @@
       <c r="B80" t="s">
         <v>136</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C80" s="6" t="s">
         <v>177</v>
       </c>
     </row>
@@ -1865,7 +2239,7 @@
       <c r="B81" t="s">
         <v>139</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="6" t="s">
         <v>178</v>
       </c>
     </row>
@@ -1876,7 +2250,7 @@
       <c r="B82" t="s">
         <v>140</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="6" t="s">
         <v>179</v>
       </c>
     </row>
@@ -1887,7 +2261,7 @@
       <c r="B83" t="s">
         <v>143</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="6" t="s">
         <v>182</v>
       </c>
     </row>
@@ -1898,7 +2272,7 @@
       <c r="B84" t="s">
         <v>145</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C84" s="6" t="s">
         <v>180</v>
       </c>
     </row>
@@ -1909,37 +2283,390 @@
       <c r="B85" t="s">
         <v>146</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C85" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A87" s="6"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
-      <c r="L87" s="6"/>
-      <c r="M87" s="6"/>
-      <c r="N87" s="6"/>
-      <c r="O87" s="6"/>
+      <c r="A87" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4"/>
+      <c r="O87" s="4"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>183</v>
+      </c>
+      <c r="B89" t="s">
+        <v>184</v>
+      </c>
+      <c r="C89" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>185</v>
+      </c>
+      <c r="B90" t="s">
+        <v>186</v>
+      </c>
+      <c r="C90" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>134</v>
+      </c>
+      <c r="B91" t="s">
+        <v>135</v>
+      </c>
+      <c r="C91" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>211</v>
+      </c>
+      <c r="B92" t="s">
+        <v>210</v>
+      </c>
+      <c r="C92" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>187</v>
+      </c>
+      <c r="B93" t="s">
+        <v>188</v>
+      </c>
+      <c r="C93" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>189</v>
+      </c>
+      <c r="B94" t="s">
+        <v>190</v>
+      </c>
+      <c r="C94" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>191</v>
+      </c>
+      <c r="B95" t="s">
+        <v>192</v>
+      </c>
+      <c r="C95" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>193</v>
+      </c>
+      <c r="B96" t="s">
+        <v>194</v>
+      </c>
+      <c r="C96" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>195</v>
+      </c>
+      <c r="B97" t="s">
+        <v>196</v>
+      </c>
+      <c r="C97" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>199</v>
+      </c>
+      <c r="B98" t="s">
+        <v>198</v>
+      </c>
+      <c r="C98" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>203</v>
+      </c>
+      <c r="B99" t="s">
+        <v>202</v>
+      </c>
+      <c r="C99" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>213</v>
+      </c>
+      <c r="B100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C100" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>216</v>
+      </c>
+      <c r="B101" t="s">
+        <v>217</v>
+      </c>
+      <c r="C101" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>219</v>
+      </c>
+      <c r="B102" t="s">
+        <v>220</v>
+      </c>
+      <c r="C102" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>223</v>
+      </c>
+      <c r="B103" t="s">
+        <v>222</v>
+      </c>
+      <c r="C103" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>224</v>
+      </c>
+      <c r="B104" t="s">
+        <v>225</v>
+      </c>
+      <c r="C104" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>228</v>
+      </c>
+      <c r="B105" t="s">
+        <v>229</v>
+      </c>
+      <c r="C105" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>120</v>
+      </c>
+      <c r="B106" t="s">
+        <v>121</v>
+      </c>
+      <c r="C106" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>232</v>
+      </c>
+      <c r="B107" t="s">
+        <v>231</v>
+      </c>
+      <c r="C107" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>234</v>
+      </c>
+      <c r="B108" t="s">
+        <v>235</v>
+      </c>
+      <c r="C108" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>237</v>
+      </c>
+      <c r="B109" t="s">
+        <v>238</v>
+      </c>
+      <c r="C109" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>240</v>
+      </c>
+      <c r="B110" t="s">
+        <v>241</v>
+      </c>
+      <c r="C110" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>243</v>
+      </c>
+      <c r="B111" t="s">
+        <v>244</v>
+      </c>
+      <c r="C111" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>247</v>
+      </c>
+      <c r="B112" t="s">
+        <v>246</v>
+      </c>
+      <c r="C112" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>250</v>
+      </c>
+      <c r="B113" t="s">
+        <v>249</v>
+      </c>
+      <c r="C113" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>252</v>
+      </c>
+      <c r="B114" t="s">
+        <v>253</v>
+      </c>
+      <c r="C114" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>255</v>
+      </c>
+      <c r="B115" t="s">
+        <v>256</v>
+      </c>
+      <c r="C115" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>258</v>
+      </c>
+      <c r="B116" t="s">
+        <v>259</v>
+      </c>
+      <c r="C116" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>261</v>
+      </c>
+      <c r="B117" t="s">
+        <v>262</v>
+      </c>
+      <c r="C117" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>265</v>
+      </c>
+      <c r="B118" t="s">
+        <v>264</v>
+      </c>
+      <c r="C118" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A129" s="11"/>
+      <c r="B129" s="11"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11"/>
+      <c r="G129" s="11"/>
+      <c r="H129" s="11"/>
+      <c r="I129" s="11"/>
+      <c r="J129" s="11"/>
+      <c r="K129" s="11"/>
+      <c r="L129" s="11"/>
+      <c r="M129" s="11"/>
+      <c r="N129" s="11"/>
+      <c r="O129" s="11"/>
+      <c r="P129" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A48:O48"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A48:E48"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{E6D9238B-3069-4B45-A8A1-CF3C5F3B5524}"/>
+    <hyperlink ref="A48" r:id="rId2" xr:uid="{8F34311A-96FF-435C-A032-FC52F7D27C4E}"/>
+    <hyperlink ref="A87" r:id="rId3" xr:uid="{138DFE72-33D0-4227-8951-32F31EA5FE1D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
--- a/reading-practice.xlsx
+++ b/reading-practice.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\kanji_html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231EAD92-A284-492A-B248-C27D050DD458}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59164AD-C215-4DD3-87B2-2CA315E29974}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E9CC96BB-580B-884A-A437-621410D5E53C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="NHK Web Easy" sheetId="1" r:id="rId1"/>
+    <sheet name="NHK World" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="358">
   <si>
     <t>たかさ</t>
   </si>
@@ -842,6 +843,275 @@
   </si>
   <si>
     <t>https://www3.nhk.or.jp/news/easy/k10012146471000/k10012146471000.html</t>
+  </si>
+  <si>
+    <t>ガソリン</t>
+  </si>
+  <si>
+    <t>Gasoline</t>
+  </si>
+  <si>
+    <t>缶</t>
+  </si>
+  <si>
+    <t>かん</t>
+  </si>
+  <si>
+    <t>Can</t>
+  </si>
+  <si>
+    <t>入れて</t>
+  </si>
+  <si>
+    <t>いれて</t>
+  </si>
+  <si>
+    <t>keeping inside.</t>
+  </si>
+  <si>
+    <t>売る</t>
+  </si>
+  <si>
+    <t>https://www3.nhk.or.jp/news/easy/k10012154351000/k10012154351000.html</t>
+  </si>
+  <si>
+    <t>うる</t>
+  </si>
+  <si>
+    <t>Sell</t>
+  </si>
+  <si>
+    <t>規則</t>
+  </si>
+  <si>
+    <t>きそく</t>
+  </si>
+  <si>
+    <t>きびしくする</t>
+  </si>
+  <si>
+    <t>厳しくする</t>
+  </si>
+  <si>
+    <t>rule</t>
+  </si>
+  <si>
+    <t>Make strict</t>
+  </si>
+  <si>
+    <t>今年</t>
+  </si>
+  <si>
+    <t>ことし</t>
+  </si>
+  <si>
+    <t>This Year</t>
+  </si>
+  <si>
+    <t>７月</t>
+  </si>
+  <si>
+    <t>７がつ</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>京都アニメーション</t>
+  </si>
+  <si>
+    <t>きょうとアニメーション</t>
+  </si>
+  <si>
+    <t>Kyouto Animation</t>
+  </si>
+  <si>
+    <t>建物</t>
+  </si>
+  <si>
+    <t>たてもの</t>
+  </si>
+  <si>
+    <t>Building</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>おとこ</t>
+  </si>
+  <si>
+    <t>Man</t>
+  </si>
+  <si>
+    <t>火</t>
+  </si>
+  <si>
+    <t>ひ</t>
+  </si>
+  <si>
+    <t>つけて</t>
+  </si>
+  <si>
+    <t>Put on</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>大勢</t>
+  </si>
+  <si>
+    <t>おおぜい</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Many </t>
+  </si>
+  <si>
+    <t>はこびました</t>
+  </si>
+  <si>
+    <t>運こびました</t>
+  </si>
+  <si>
+    <t>Carried</t>
+  </si>
+  <si>
+    <t>総務省消防庁</t>
+  </si>
+  <si>
+    <t>そうむしょうしょうぼうちょう</t>
+  </si>
+  <si>
+    <t>Fire and disaster management agency</t>
+  </si>
+  <si>
+    <t>あたらしく</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>つくる</t>
+  </si>
+  <si>
+    <t>作くる</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>運転免許証</t>
+  </si>
+  <si>
+    <t>うんてんめんきょしょう</t>
+  </si>
+  <si>
+    <t>Driving licence</t>
+  </si>
+  <si>
+    <t>かくにん</t>
+  </si>
+  <si>
+    <t>確認</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>意見</t>
+  </si>
+  <si>
+    <t>いけん</t>
+  </si>
+  <si>
+    <t>あつめます</t>
+  </si>
+  <si>
+    <t>集めます</t>
+  </si>
+  <si>
+    <t>Opinion</t>
+  </si>
+  <si>
+    <t>Collect</t>
+  </si>
+  <si>
+    <t>１日</t>
+  </si>
+  <si>
+    <t>ついたち</t>
+  </si>
+  <si>
+    <t>1st day of month</t>
+  </si>
+  <si>
+    <t>始める</t>
+  </si>
+  <si>
+    <t>はじめる</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>予定</t>
+  </si>
+  <si>
+    <t>よてい</t>
+  </si>
+  <si>
+    <t>https://www3.nhk.or.jp/nhkworld/en/tv/easyjapaneseforwork/</t>
+  </si>
+  <si>
+    <t>https://www.nhk.or.jp/lesson/english/special/challenge/30.html#challenge</t>
+  </si>
+  <si>
+    <t>https://www.nhk.or.jp/lesson/english/special/challenge/34.html#challenge</t>
+  </si>
+  <si>
+    <t>V. Imp</t>
+  </si>
+  <si>
+    <t>If you add SÔ after an adjective, you can express what you think or guess after you look at or listen to something. Now, there are two kinds of adjectives in Japanese, I-adjectives and NA-adjectives. When you add SÔ to I-adjectives, you change its ending, I, to SÔ. OMOSHIROI (interesting) is an I-adjective. It becomes OMOSHIROSÔ (It seems interesting). For NA-adjectives, you just add SÔ to them. For example, GENKI (well, fine, healthy) becomes GENKISÔ (seems to be in good health or in high spirits)</t>
+  </si>
+  <si>
+    <t>A high-pitched woman's voice is expressed as KYÂKYÂ. We also use KYÂKYÂ for girls shouting in fear. And children can shout KYÂKYÂ, when they are romping around in happy excitement. The sound word to express how a new pair of shoes is shining is PIKAPIKA. When we mop the floor and the floor has become fresh and clean, we also say the floor is now PIKAPIKA.</t>
+  </si>
+  <si>
+    <t>https://www.nhk.or.jp/lesson/english/special/challenge/36.html#challenge</t>
+  </si>
+  <si>
+    <t>We say the figure “20” as NIJÛ. But we say the date “the 20th of a month” as HATSUKA. It is better to memorize it as is. As you can see in this example, when we use figures as dates in Japanese, the way to say them can change. So, let’s review how to say the dates from the first to the tenth day of a month. “The first day of a month” TSUITACHI, “The second day” FUTSUKA, “The third day” MIKKA, “The fourth day” YOKKA, “The fifth day” ITSUKA, “The sixth day” MUIKA, “The seventh day” NANOKA, “The eighth day” YÔKA, “The ninth day” KOKONOKA “The tenth day” TÔKA. From the 11th day forward, we basically say the figures first, and add the word which means “day”, NICHI, after them. So, “the 11th day” is JÛICHINICHI. But there are some exceptions. “The 14th day” is JÛYOKKA, “the 20th day” is HATSUKA, and “the 24th day” is NIJÛYOKKA.</t>
+  </si>
+  <si>
+    <t>https://www.nhk.or.jp/lesson/english/special/challenge/39.html#challenge</t>
+  </si>
+  <si>
+    <t>IIE is "No." SOREHODODEMO means "not really." This is an expression often used in Japan, where humility is considered a virtue. In Japan, people do not say ARIGATÔ so often, even if they are praised. Ê, MÂ is "Yeah, to some extent." It was in Lesson 12. It expresses a vague confirmation.</t>
+  </si>
+  <si>
+    <t>https://www.nhk.or.jp/lesson/english/special/challenge/11.html#challenge</t>
+  </si>
+  <si>
+    <t>https://www.nhk.or.jp/lesson/english/special/challenge/7.html#challenge</t>
+  </si>
+  <si>
+    <t>If somebody is fast asleep, you say GÛGÛ. You also say GÛGÛ, when somebody is snoring. On the other hand, you say GAYAGAYA when many people are talking loudly.</t>
+  </si>
+  <si>
+    <t>https://www.nhk.or.jp/lesson/english/special/challenge/15.html#challenge</t>
+  </si>
+  <si>
+    <t>We say ZÂ ZÂ when it's raining hard. On the other hand, WÂ WÂ expresses how people are excited and making a lot of noise, watching a sporting event or something like that.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anna has caught a cold. She says ATAMA GA ZUKIZUKI SHIMASU. It is an expression you say when you are not feeling well. Which of the following two expressions is correct?
+ATAMA means "a head." ZUKIZUKI is an onomatopoeia, or a sound word. It is used when you have a headache and your head is throbbing. If it is followed by SHIMASU (to do), it becomes a verb. So, ATAMA GA ZUKIZUKI SHIMASU means "My head is throbbing." You can use the same expression for teeth and painful injuries. Another sound word that describes the feeling of being nauseous is MUKAMUKA. If you want to turn it into a verb, you say MUKAMUKA SHIMASU.
+</t>
+  </si>
+  <si>
+    <t>https://www.nhk.or.jp/lesson/english/special/challenge/21.html#challenge</t>
   </si>
 </sst>
 </file>
@@ -936,7 +1206,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -952,17 +1222,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1251,6 +1534,94 @@
         <a:xfrm>
           <a:off x="11443063" y="9522822"/>
           <a:ext cx="4040819" cy="7642727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>78719</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>194513</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B732FB6B-698F-4892-BFE1-4619B36D3CFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8293100" y="27774900"/>
+          <a:ext cx="5247619" cy="8533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>808986</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>179909</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1496DC1-A86C-4308-8A1D-C133649DF4E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13411200" y="27762200"/>
+          <a:ext cx="5114286" cy="8523809"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1559,16 +1930,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BDF87B-41D2-C04F-A633-1AD95FAA6E1B}">
-  <dimension ref="A1:P129"/>
+  <dimension ref="A1:P176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A131" sqref="A131"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A176" sqref="A176:P176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.296875" customWidth="1"/>
-    <col min="2" max="2" width="25.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.19921875" customWidth="1"/>
     <col min="4" max="4" width="10.69921875" customWidth="1"/>
     <col min="5" max="5" width="34.296875" customWidth="1"/>
@@ -1576,24 +1947,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -1884,23 +2255,23 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
@@ -1957,7 +2328,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>90</v>
       </c>
@@ -2056,7 +2427,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>104</v>
       </c>
@@ -2288,12 +2659,12 @@
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A87" s="9" t="s">
+      <c r="A87" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="B87" s="10"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="10"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
@@ -2637,36 +3008,442 @@
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A129" s="11"/>
-      <c r="B129" s="11"/>
-      <c r="C129" s="11"/>
-      <c r="D129" s="11"/>
-      <c r="E129" s="11"/>
-      <c r="F129" s="11"/>
-      <c r="G129" s="11"/>
-      <c r="H129" s="11"/>
-      <c r="I129" s="11"/>
-      <c r="J129" s="11"/>
-      <c r="K129" s="11"/>
-      <c r="L129" s="11"/>
-      <c r="M129" s="11"/>
-      <c r="N129" s="11"/>
-      <c r="O129" s="11"/>
-      <c r="P129" s="11"/>
+      <c r="A129" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B129" s="13"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="13"/>
+      <c r="E129" s="13"/>
+      <c r="F129" s="13"/>
+      <c r="G129" s="13"/>
+      <c r="H129" s="13"/>
+      <c r="I129" s="13"/>
+      <c r="J129" s="13"/>
+      <c r="K129" s="13"/>
+      <c r="L129" s="8"/>
+      <c r="M129" s="8"/>
+      <c r="N129" s="8"/>
+      <c r="O129" s="8"/>
+      <c r="P129" s="8"/>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>269</v>
+      </c>
+      <c r="B132" t="s">
+        <v>269</v>
+      </c>
+      <c r="C132" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>271</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C133" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A134" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="C134" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A135" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="B135" t="s">
+        <v>279</v>
+      </c>
+      <c r="C135" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>281</v>
+      </c>
+      <c r="B136" t="s">
+        <v>282</v>
+      </c>
+      <c r="C136" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>284</v>
+      </c>
+      <c r="B137" t="s">
+        <v>283</v>
+      </c>
+      <c r="C137" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>287</v>
+      </c>
+      <c r="B138" t="s">
+        <v>288</v>
+      </c>
+      <c r="C138" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>290</v>
+      </c>
+      <c r="B139" t="s">
+        <v>291</v>
+      </c>
+      <c r="C139" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>293</v>
+      </c>
+      <c r="B140" t="s">
+        <v>294</v>
+      </c>
+      <c r="C140" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>296</v>
+      </c>
+      <c r="B141" t="s">
+        <v>297</v>
+      </c>
+      <c r="C141" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>299</v>
+      </c>
+      <c r="B142" t="s">
+        <v>300</v>
+      </c>
+      <c r="C142" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>302</v>
+      </c>
+      <c r="B143" t="s">
+        <v>303</v>
+      </c>
+      <c r="C143" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>304</v>
+      </c>
+      <c r="B144" t="s">
+        <v>304</v>
+      </c>
+      <c r="C144" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>307</v>
+      </c>
+      <c r="B145" t="s">
+        <v>308</v>
+      </c>
+      <c r="C145" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>311</v>
+      </c>
+      <c r="B146" t="s">
+        <v>310</v>
+      </c>
+      <c r="C146" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>313</v>
+      </c>
+      <c r="B147" t="s">
+        <v>314</v>
+      </c>
+      <c r="C147" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>281</v>
+      </c>
+      <c r="B148" t="s">
+        <v>282</v>
+      </c>
+      <c r="C148" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>316</v>
+      </c>
+      <c r="B149" t="s">
+        <v>316</v>
+      </c>
+      <c r="C149" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>319</v>
+      </c>
+      <c r="B150" t="s">
+        <v>318</v>
+      </c>
+      <c r="C150" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>321</v>
+      </c>
+      <c r="B151" t="s">
+        <v>322</v>
+      </c>
+      <c r="C151" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>325</v>
+      </c>
+      <c r="B152" t="s">
+        <v>324</v>
+      </c>
+      <c r="C152" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>327</v>
+      </c>
+      <c r="B153" t="s">
+        <v>328</v>
+      </c>
+      <c r="C153" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>330</v>
+      </c>
+      <c r="B154" t="s">
+        <v>329</v>
+      </c>
+      <c r="C154" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>333</v>
+      </c>
+      <c r="B155" t="s">
+        <v>334</v>
+      </c>
+      <c r="C155" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>336</v>
+      </c>
+      <c r="B156" t="s">
+        <v>337</v>
+      </c>
+      <c r="C156" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>339</v>
+      </c>
+      <c r="B157" t="s">
+        <v>340</v>
+      </c>
+      <c r="C157" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A176" s="12"/>
+      <c r="B176" s="12"/>
+      <c r="C176" s="12"/>
+      <c r="D176" s="12"/>
+      <c r="E176" s="12"/>
+      <c r="F176" s="12"/>
+      <c r="G176" s="12"/>
+      <c r="H176" s="12"/>
+      <c r="I176" s="12"/>
+      <c r="J176" s="12"/>
+      <c r="K176" s="12"/>
+      <c r="L176" s="12"/>
+      <c r="M176" s="12"/>
+      <c r="N176" s="12"/>
+      <c r="O176" s="12"/>
+      <c r="P176" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
+    <mergeCell ref="A176:P176"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A87:D87"/>
     <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A129:K129"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{E6D9238B-3069-4B45-A8A1-CF3C5F3B5524}"/>
     <hyperlink ref="A48" r:id="rId2" xr:uid="{8F34311A-96FF-435C-A032-FC52F7D27C4E}"/>
     <hyperlink ref="A87" r:id="rId3" xr:uid="{138DFE72-33D0-4227-8951-32F31EA5FE1D}"/>
+    <hyperlink ref="A129" r:id="rId4" xr:uid="{4BCA3B01-3552-4292-AEEE-2303643B3228}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-  <drawing r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <drawing r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADCAB40C-F999-496A-9C25-805AB2CAC948}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="78.19921875" customWidth="1"/>
+    <col min="3" max="3" width="45" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="165.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="B3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="265.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="265.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{44E55DEA-154C-4FB4-A3CB-F803BD3CE470}"/>
+    <hyperlink ref="A2" r:id="rId2" location="challenge" xr:uid="{EE719396-43DF-4BB7-BC59-28CDEDFC3D2B}"/>
+    <hyperlink ref="A3" r:id="rId3" location="challenge" xr:uid="{B0B200CF-4E45-48FA-BF8E-41D3B3BA46CE}"/>
+    <hyperlink ref="A4" r:id="rId4" location="challenge" xr:uid="{2B2D4D73-2A9B-4BEE-B41B-1BF92F30FEAA}"/>
+    <hyperlink ref="A5" r:id="rId5" location="challenge" xr:uid="{EBB30DC7-AF4A-4846-B831-B3DCA0356D50}"/>
+    <hyperlink ref="A6" r:id="rId6" location="challenge" xr:uid="{A2815F27-9387-4F65-A5E8-6537E77A2639}"/>
+    <hyperlink ref="A7" r:id="rId7" location="challenge" xr:uid="{5E1225F7-2D4B-4C38-9EB7-D5B37D901B16}"/>
+    <hyperlink ref="A8" r:id="rId8" location="challenge" xr:uid="{2E5E245A-9736-40D9-BF3B-F78C0D009E5E}"/>
+    <hyperlink ref="A9" r:id="rId9" location="challenge" xr:uid="{0D0FCBDD-7B8A-4488-B482-17E762A7A897}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/reading-practice.xlsx
+++ b/reading-practice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\kanji_html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59164AD-C215-4DD3-87B2-2CA315E29974}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2F5948-18C6-4C2E-8E5E-B2E3C6CFF5EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E9CC96BB-580B-884A-A437-621410D5E53C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="443">
   <si>
     <t>たかさ</t>
   </si>
@@ -1112,6 +1112,261 @@
   </si>
   <si>
     <t>https://www.nhk.or.jp/lesson/english/special/challenge/21.html#challenge</t>
+  </si>
+  <si>
+    <t>ロボットたち</t>
+  </si>
+  <si>
+    <t>Robot</t>
+  </si>
+  <si>
+    <t>青森県</t>
+  </si>
+  <si>
+    <t>あおもりけん</t>
+  </si>
+  <si>
+    <t>Oomori prefecture</t>
+  </si>
+  <si>
+    <t>旅行</t>
+  </si>
+  <si>
+    <t>りょこう</t>
+  </si>
+  <si>
+    <t>Trip/travel</t>
+  </si>
+  <si>
+    <t>たのしむ</t>
+  </si>
+  <si>
+    <t>楽しむ</t>
+  </si>
+  <si>
+    <t>Enjoy</t>
+  </si>
+  <si>
+    <t>ちいさいロボット５０台</t>
+  </si>
+  <si>
+    <t>小さいロボット５０台</t>
+  </si>
+  <si>
+    <t>50 small robots</t>
+  </si>
+  <si>
+    <t>ロボットを持っているひとたちの代わりに</t>
+  </si>
+  <si>
+    <t>ロボットをもっているひとたちのかわりに</t>
+  </si>
+  <si>
+    <t>Instead of people having robots</t>
+  </si>
+  <si>
+    <t>あおもりけんむつし</t>
+  </si>
+  <si>
+    <t>青森県むつ市</t>
+  </si>
+  <si>
+    <t>Awomori prefecture Mutsu city.</t>
+  </si>
+  <si>
+    <t>ロボットを作った会社</t>
+  </si>
+  <si>
+    <t>ロボットをつくったかいしゃ</t>
+  </si>
+  <si>
+    <t>The company that made robots</t>
+  </si>
+  <si>
+    <t>このイベントを考えました</t>
+  </si>
+  <si>
+    <t>このイベントをかんがえました</t>
+  </si>
+  <si>
+    <t>Thought about this event</t>
+  </si>
+  <si>
+    <t>２８日の朝</t>
+  </si>
+  <si>
+    <t>２８にちのあさ</t>
+  </si>
+  <si>
+    <t>on 28th Morning</t>
+  </si>
+  <si>
+    <t>集まって</t>
+  </si>
+  <si>
+    <t>あつまって</t>
+  </si>
+  <si>
+    <t>Gathering</t>
+  </si>
+  <si>
+    <t>始めました</t>
+  </si>
+  <si>
+    <t>はじめました</t>
+  </si>
+  <si>
+    <t>Started</t>
+  </si>
+  <si>
+    <t>ほんしゅうで</t>
+  </si>
+  <si>
+    <t>本州で</t>
+  </si>
+  <si>
+    <t>At japan's main island.</t>
+  </si>
+  <si>
+    <t>北</t>
+  </si>
+  <si>
+    <t>きた</t>
+  </si>
+  <si>
+    <t>North</t>
+  </si>
+  <si>
+    <t>市役所</t>
+  </si>
+  <si>
+    <t>しやくしょ</t>
+  </si>
+  <si>
+    <t>Muncipal Office/ City hall.</t>
+  </si>
+  <si>
+    <t>市長</t>
+  </si>
+  <si>
+    <t>しちょう</t>
+  </si>
+  <si>
+    <t>mayor</t>
+  </si>
+  <si>
+    <t>お客さん</t>
+  </si>
+  <si>
+    <t>おきゃくさん</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>To meet</t>
+  </si>
+  <si>
+    <t>迎える</t>
+  </si>
+  <si>
+    <t>むかえる</t>
+  </si>
+  <si>
+    <t>歴史的</t>
+  </si>
+  <si>
+    <t>れきしてき</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Historical </t>
+  </si>
+  <si>
+    <t>時</t>
+  </si>
+  <si>
+    <t>とき</t>
+  </si>
+  <si>
+    <t>When something happens/at that time.</t>
+  </si>
+  <si>
+    <t>言</t>
+  </si>
+  <si>
+    <t>いう</t>
+  </si>
+  <si>
+    <t>Say.</t>
+  </si>
+  <si>
+    <t>おどり</t>
+  </si>
+  <si>
+    <t>踊り</t>
+  </si>
+  <si>
+    <t>dance</t>
+  </si>
+  <si>
+    <t>見せました</t>
+  </si>
+  <si>
+    <t>みせました</t>
+  </si>
+  <si>
+    <t>has shown</t>
+  </si>
+  <si>
+    <t>ゆうめいな</t>
+  </si>
+  <si>
+    <t>有名な</t>
+  </si>
+  <si>
+    <t>famous</t>
+  </si>
+  <si>
+    <t>７つの場所</t>
+  </si>
+  <si>
+    <t>７つのばしょ</t>
+  </si>
+  <si>
+    <t>7 places</t>
+  </si>
+  <si>
+    <t>写真</t>
+  </si>
+  <si>
+    <t>しゃしん</t>
+  </si>
+  <si>
+    <t>Photo</t>
+  </si>
+  <si>
+    <t>お土産</t>
+  </si>
+  <si>
+    <t>おみやげ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">souvenir </t>
+  </si>
+  <si>
+    <t>一緒</t>
+  </si>
+  <si>
+    <t>かえります</t>
+  </si>
+  <si>
+    <t>帰ります</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>https://www3.nhk.or.jp/news/easy/k10012154151000/k10012154151000.html</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1461,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1224,6 +1479,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1233,18 +1492,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1630,6 +1882,94 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>751829</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>186338</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0A3FC9E-189E-4EF1-BD1A-834B7277D77A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8191500" y="37122100"/>
+          <a:ext cx="5171429" cy="7895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>154914</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>8533</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A4DA455-5AD8-4649-B004-F310FD9AE9AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13436600" y="37109400"/>
+          <a:ext cx="5285714" cy="7933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1930,10 +2270,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BDF87B-41D2-C04F-A633-1AD95FAA6E1B}">
-  <dimension ref="A1:P176"/>
+  <dimension ref="A1:P218"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A176" sqref="A176:P176"/>
+    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A220" sqref="A220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1947,24 +2287,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -2255,13 +2595,13 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
@@ -2659,12 +2999,12 @@
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A87" s="10" t="s">
+      <c r="A87" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
@@ -3011,16 +3351,16 @@
       <c r="A129" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="B129" s="13"/>
-      <c r="C129" s="13"/>
-      <c r="D129" s="13"/>
-      <c r="E129" s="13"/>
-      <c r="F129" s="13"/>
-      <c r="G129" s="13"/>
-      <c r="H129" s="13"/>
-      <c r="I129" s="13"/>
-      <c r="J129" s="13"/>
-      <c r="K129" s="13"/>
+      <c r="B129" s="15"/>
+      <c r="C129" s="15"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="15"/>
+      <c r="F129" s="15"/>
+      <c r="G129" s="15"/>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="15"/>
+      <c r="K129" s="15"/>
       <c r="L129" s="8"/>
       <c r="M129" s="8"/>
       <c r="N129" s="8"/>
@@ -3314,25 +3654,375 @@
       </c>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A176" s="12"/>
-      <c r="B176" s="12"/>
-      <c r="C176" s="12"/>
-      <c r="D176" s="12"/>
-      <c r="E176" s="12"/>
-      <c r="F176" s="12"/>
-      <c r="G176" s="12"/>
-      <c r="H176" s="12"/>
-      <c r="I176" s="12"/>
-      <c r="J176" s="12"/>
-      <c r="K176" s="12"/>
-      <c r="L176" s="12"/>
-      <c r="M176" s="12"/>
-      <c r="N176" s="12"/>
-      <c r="O176" s="12"/>
-      <c r="P176" s="12"/>
+      <c r="A176" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="B176" s="15"/>
+      <c r="C176" s="15"/>
+      <c r="D176" s="15"/>
+      <c r="E176" s="15"/>
+      <c r="F176" s="15"/>
+      <c r="G176" s="15"/>
+      <c r="H176" s="15"/>
+      <c r="I176" s="15"/>
+      <c r="J176" s="15"/>
+      <c r="K176" s="15"/>
+      <c r="L176" s="15"/>
+      <c r="M176" s="15"/>
+      <c r="N176" s="15"/>
+      <c r="O176" s="15"/>
+      <c r="P176" s="15"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>358</v>
+      </c>
+      <c r="B178" t="s">
+        <v>358</v>
+      </c>
+      <c r="C178" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>360</v>
+      </c>
+      <c r="B179" t="s">
+        <v>361</v>
+      </c>
+      <c r="C179" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>363</v>
+      </c>
+      <c r="B180" t="s">
+        <v>364</v>
+      </c>
+      <c r="C180" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>367</v>
+      </c>
+      <c r="B181" t="s">
+        <v>366</v>
+      </c>
+      <c r="C181" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>370</v>
+      </c>
+      <c r="B182" t="s">
+        <v>369</v>
+      </c>
+      <c r="C182" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A183" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="C183" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>376</v>
+      </c>
+      <c r="B184" t="s">
+        <v>375</v>
+      </c>
+      <c r="C184" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>363</v>
+      </c>
+      <c r="B185" t="s">
+        <v>364</v>
+      </c>
+      <c r="C185" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>378</v>
+      </c>
+      <c r="B186" t="s">
+        <v>379</v>
+      </c>
+      <c r="C186" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>381</v>
+      </c>
+      <c r="B187" t="s">
+        <v>382</v>
+      </c>
+      <c r="C187" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>384</v>
+      </c>
+      <c r="B188" t="s">
+        <v>385</v>
+      </c>
+      <c r="C188" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>387</v>
+      </c>
+      <c r="B189" t="s">
+        <v>388</v>
+      </c>
+      <c r="C189" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>390</v>
+      </c>
+      <c r="B190" t="s">
+        <v>391</v>
+      </c>
+      <c r="C190" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>394</v>
+      </c>
+      <c r="B191" t="s">
+        <v>393</v>
+      </c>
+      <c r="C191" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>396</v>
+      </c>
+      <c r="B192" t="s">
+        <v>397</v>
+      </c>
+      <c r="C192" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>399</v>
+      </c>
+      <c r="B193" t="s">
+        <v>400</v>
+      </c>
+      <c r="C193" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>402</v>
+      </c>
+      <c r="B194" t="s">
+        <v>403</v>
+      </c>
+      <c r="C194" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>405</v>
+      </c>
+      <c r="B195" t="s">
+        <v>406</v>
+      </c>
+      <c r="C195" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>409</v>
+      </c>
+      <c r="B196" t="s">
+        <v>410</v>
+      </c>
+      <c r="C196" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>411</v>
+      </c>
+      <c r="B197" t="s">
+        <v>412</v>
+      </c>
+      <c r="C197" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>414</v>
+      </c>
+      <c r="B198" t="s">
+        <v>415</v>
+      </c>
+      <c r="C198" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>417</v>
+      </c>
+      <c r="B199" t="s">
+        <v>418</v>
+      </c>
+      <c r="C199" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>421</v>
+      </c>
+      <c r="B200" t="s">
+        <v>420</v>
+      </c>
+      <c r="C200" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>423</v>
+      </c>
+      <c r="B201" t="s">
+        <v>424</v>
+      </c>
+      <c r="C201" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>427</v>
+      </c>
+      <c r="B202" t="s">
+        <v>426</v>
+      </c>
+      <c r="C202" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>429</v>
+      </c>
+      <c r="B203" t="s">
+        <v>430</v>
+      </c>
+      <c r="C203" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>432</v>
+      </c>
+      <c r="B204" t="s">
+        <v>433</v>
+      </c>
+      <c r="C204" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>435</v>
+      </c>
+      <c r="B205" t="s">
+        <v>436</v>
+      </c>
+      <c r="C205" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>438</v>
+      </c>
+      <c r="B206" t="s">
+        <v>139</v>
+      </c>
+      <c r="C206" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>440</v>
+      </c>
+      <c r="B207" t="s">
+        <v>439</v>
+      </c>
+      <c r="C207" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A218" s="15"/>
+      <c r="B218" s="15"/>
+      <c r="C218" s="15"/>
+      <c r="D218" s="15"/>
+      <c r="E218" s="15"/>
+      <c r="F218" s="15"/>
+      <c r="G218" s="15"/>
+      <c r="H218" s="15"/>
+      <c r="I218" s="15"/>
+      <c r="J218" s="15"/>
+      <c r="K218" s="15"/>
+      <c r="L218" s="15"/>
+      <c r="M218" s="15"/>
+      <c r="N218" s="15"/>
+      <c r="O218" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A218:O218"/>
     <mergeCell ref="A176:P176"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A87:D87"/>
@@ -3344,10 +4034,11 @@
     <hyperlink ref="A48" r:id="rId2" xr:uid="{8F34311A-96FF-435C-A032-FC52F7D27C4E}"/>
     <hyperlink ref="A87" r:id="rId3" xr:uid="{138DFE72-33D0-4227-8951-32F31EA5FE1D}"/>
     <hyperlink ref="A129" r:id="rId4" xr:uid="{4BCA3B01-3552-4292-AEEE-2303643B3228}"/>
+    <hyperlink ref="A176" r:id="rId5" xr:uid="{338553A6-ABF3-4B3B-ADC2-08615A31EE1F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-  <drawing r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -3364,17 +4055,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="9" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="9" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="165.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="9" t="s">
         <v>343</v>
       </c>
       <c r="B3" t="s">
@@ -3385,7 +4076,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="9" t="s">
         <v>347</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -3393,7 +4084,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="265.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="9" t="s">
         <v>349</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -3401,15 +4092,15 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="10" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="9" t="s">
         <v>352</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -3417,7 +4108,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="9" t="s">
         <v>354</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -3425,7 +4116,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="265.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="9" t="s">
         <v>357</v>
       </c>
       <c r="C9" s="6" t="s">
